--- a/Bug-reports/Bug reports.xlsx
+++ b/Bug-reports/Bug reports.xlsx
@@ -1,65 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="570" windowWidth="14055" windowHeight="4050"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ID: Kapu$ta011
-Reporter: Natalia Sandakova
-Assignee: Developer
-Status: New
-Type: Functional
-Severity: Medium
-Priority: High
-Browser: Opera
-OS: Android 12
-Summary: не открывается выпадающий список Product category на страницах Expenses и Income
-Description: Kapu$ta010
-Pre-conditions: Открыть сайт Kapusta. Авторизовать пользователя.
-Steps to reproduce:
-1. Открыть меню Expenses.
-2.Ввести любое валидное значение в поле Product description.
-3. Нажать на кнопку Product category.
-4. Нажать на стрелку влево для выхода в Главное меню.
-5. Открыть меню Income.
-6. Повторить степы 2 и 3.
-Actual result: Выпадающий список Product category не появляется при нажатии на кнопку Product category.
-Expected result: При нажатии на кнопку Product category появляется выпадающий список Product category.</t>
-  </si>
-  <si>
-    <t>ID: Kapu$ta012
-Reporter: Natalia Sandakova
-Assignee: Developer
-Status: New
-Type: Functional
-Severity: Medium
-Priority: High
-Browser: Opera, Chrome
-OS: Android 12
-Summary: не отображается таблица с добавленными транзакциями на Android
-Description: Kapu$ta010
-Pre-conditions: Открыть сайт Kapusta. Авторизовать пользователя.
-Steps to reproduce:
-1. Открыть меню Expenses.
-2. Ввести любое валидное значение в поле Product description.
-3. Нажать на кнопку Product category.
-4. Ввести валидную сумму в окно введения суммы транзакции.
-5. Нажать кнопку Input.
-4. Нажать на стрелку влево для выхода в Главное меню.
-5. Открыть меню Income.
-6. Повторить степы 2-5.
-Actual result: Отсутствует общая таблица транзакций. Транзакция не была добавлена (проверено путём открытия соответствующей страницы на ноутбуке (Windows 7, Chrome).
-Expected result: Транзакция сохранена и отображается в общем списке транзакций в таблице.</t>
-  </si>
   <si>
     <t>ID: Kapu$ta013
 Reporter: Natalia Sandakova
@@ -86,15 +41,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>ID: Kapu$ta014 пока не повторялся</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 Reporter: Natalia Sandakova
@@ -285,22 +242,81 @@
 Actual result: подписи под иконками категорий Communal, communication и Entertainment наползают друг на друга.
 Expected result: все иконки и подписи с указанием категории транзакции расположены ровно и обособлено.</t>
   </si>
+  <si>
+    <t>ID: Kapu$ta011
+Reporter: Natalia Sandakova
+Assignee: Developer
+Status: New
+Type: Functional
+Severity: Medium
+Priority: High
+Browser: Opera
+OS: Android 12
+Summary: не открывается выпадающий список Product category на страницах Expenses и Income
+Description: Kapu$ta011
+Pre-conditions: Открыть сайт Kapusta. Авторизовать пользователя.
+Steps to reproduce:
+1. Открыть меню Expenses.
+2.Ввести любое валидное значение в поле Product description.
+3. Нажать на кнопку Product category.
+4. Нажать на стрелку влево для выхода в Главное меню.
+5. Открыть меню Income.
+6. Повторить степы 2 и 3.
+Actual result: Выпадающий список Product category не появляется при нажатии на кнопку Product category.
+Expected result: При нажатии на кнопку Product category появляется выпадающий список Product category.</t>
+  </si>
+  <si>
+    <t>ID: Kapu$ta012
+Reporter: Natalia Sandakova
+Assignee: Developer
+Status: New
+Type: Functional
+Severity: Medium
+Priority: High
+Browser: Opera, Chrome
+OS: Android 12
+Summary: не отображается таблица с добавленными транзакциями на Android
+Description: Kapu$ta012
+Pre-conditions: Открыть сайт Kapusta. Авторизовать пользователя.
+Steps to reproduce:
+1. Открыть меню Expenses.
+2. Ввести любое валидное значение в поле Product description.
+3. Нажать на кнопку Product category.
+4. Ввести валидную сумму в окно введения суммы транзакции.
+5. Нажать кнопку Input.
+4. Нажать на стрелку влево для выхода в Главное меню.
+5. Открыть меню Income.
+6. Повторить степы 2-5.
+Actual result: Отсутствует общая таблица транзакций. Транзакция не была добавлена (проверено путём открытия соответствующей страницы на ноутбуке (Windows 7, Chrome).
+Expected result: Транзакция сохранена и отображается в общем списке транзакций в таблице.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,50 +324,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -541,80 +554,85 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="88.13"/>
+    <col min="1" max="1" width="88.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -623,6 +641,6 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>